--- a/Salary/W2 Salaries and Tasks.xlsx
+++ b/Salary/W2 Salaries and Tasks.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="B8" s="15">
         <f>B5*D5/C14*C8</f>
-        <v>78.94736842105263</v>
+        <v>62.5</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -793,9 +793,11 @@
       </c>
       <c r="B9" s="15">
         <f>B5*D5/C14*C9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -803,7 +805,7 @@
       </c>
       <c r="B10" s="15">
         <f>B5*D5/C14*C10</f>
-        <v>184.21052631578945</v>
+        <v>145.83333333333331</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -815,7 +817,7 @@
       </c>
       <c r="B11" s="15">
         <f>B5*D5/C14*C11</f>
-        <v>105.26315789473684</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -827,10 +829,10 @@
       </c>
       <c r="B12" s="15">
         <f>B5*D5/C14*C12</f>
-        <v>131.57894736842104</v>
+        <v>125</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -847,7 +849,7 @@
       </c>
       <c r="C14">
         <f>SUM(C8:C12)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
